--- a/omercanyenigun/evidence.xlsx
+++ b/omercanyenigun/evidence.xlsx
@@ -1,65 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omercanyenigun/Desktop/Dymension/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76E2F218-8C2E-3446-8420-8E1D544A594D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="20980" yWindow="5100" windowWidth="37600" windowHeight="17340" xr2:uid="{3EE407A3-7367-8149-BFDF-64A17C6ACAAB}"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="A1" sheetId="2" r:id="rId2"/>
+    <sheet name="A2" sheetId="3" r:id="rId3"/>
+    <sheet name="A3" sheetId="4" r:id="rId4"/>
+    <sheet name="A4" sheetId="5" r:id="rId5"/>
+    <sheet name="A5" sheetId="6" r:id="rId6"/>
+    <sheet name="A6" sheetId="7" r:id="rId7"/>
+    <sheet name="A7" sheetId="8" r:id="rId8"/>
+    <sheet name="A8" sheetId="9" r:id="rId9"/>
+    <sheet name="A9" sheetId="10" r:id="rId10"/>
+    <sheet name="A10" sheetId="11" r:id="rId11"/>
+    <sheet name="A11" sheetId="12" r:id="rId12"/>
+    <sheet name="A12" sheetId="13" r:id="rId13"/>
+    <sheet name="A13" sheetId="14" r:id="rId14"/>
+    <sheet name="A14" sheetId="15" r:id="rId15"/>
+    <sheet name="A15" sheetId="16" r:id="rId16"/>
+    <sheet name="A16" sheetId="17" r:id="rId17"/>
+    <sheet name="A17" sheetId="18" r:id="rId18"/>
+    <sheet name="A18" sheetId="19" r:id="rId19"/>
+    <sheet name="A19" sheetId="20" r:id="rId20"/>
+    <sheet name="A20" sheetId="21" r:id="rId21"/>
+    <sheet name="B1" sheetId="22" r:id="rId22"/>
+    <sheet name="B2" sheetId="23" r:id="rId23"/>
+    <sheet name="B5" sheetId="24" r:id="rId24"/>
+    <sheet name="B6" sheetId="25" r:id="rId25"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Team Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="58">
+  <si>
+    <t>TeamName</t>
   </si>
   <si>
     <t>IRISnetAddress</t>
   </si>
   <si>
-    <t xml:space="preserve">StargazeAddress	</t>
+    <t>StargazeAddress</t>
   </si>
   <si>
     <t>JunoAddress</t>
   </si>
   <si>
-    <t>UptickAddrss</t>
-  </si>
-  <si>
-    <t>OmniflixAddress</t>
+    <t>UptickAddress</t>
+  </si>
+  <si>
+    <t>OmniFlixAddress</t>
   </si>
   <si>
     <t>DiscordHandle</t>
   </si>
   <si>
-    <t>Community(If applicable)</t>
+    <t>Community</t>
+  </si>
+  <si>
+    <t>omercanyenigun</t>
   </si>
   <si>
     <t>iaa1h96drj3x7qjvgfscevz7nd2e7eqj8g7nmc8r2k</t>
@@ -80,40 +85,523 @@
     <t>omercanyenigun I TestNetRun#8472</t>
   </si>
   <si>
-    <t>omercanyenigun</t>
+    <t>TxHash</t>
+  </si>
+  <si>
+    <t>ClassID</t>
+  </si>
+  <si>
+    <t>7A5DA5BD29A838B4A02A2444DD71BA95E883EA9C432674F7ECA17BC4BB99A5A9</t>
+  </si>
+  <si>
+    <t>ocy</t>
+  </si>
+  <si>
+    <t>NFTID</t>
+  </si>
+  <si>
+    <t>21398E8901EB74C53F621184485DBEF1470549AF6791651AAE402D254196C5B9</t>
+  </si>
+  <si>
+    <t>nft1</t>
+  </si>
+  <si>
+    <t>13EFD445ECB091A9D402D2BD7985848A6D6B28D1FC5D08BD4D51A0E61D78DFB8</t>
+  </si>
+  <si>
+    <t>nft2</t>
+  </si>
+  <si>
+    <t>D1AE33FD25E77E0EC184B92B5C4225C927D897D80443D7536090954E900405C7</t>
+  </si>
+  <si>
+    <t>nft3</t>
+  </si>
+  <si>
+    <t>4B262476718876B89C58DED8B92343775947128A44F7DE158F9AE3ABA6937446</t>
+  </si>
+  <si>
+    <t>nft4</t>
+  </si>
+  <si>
+    <t>38A4B13E2A07E9506765B2734E9C4E6223679AC7C2DB66B1C6B90C8DCECE14CD</t>
+  </si>
+  <si>
+    <t>nft5</t>
+  </si>
+  <si>
+    <t>59D1C909BA2C4BD413E3B67655CB500DBC2318B9B88B827176219FFF1200BB8D</t>
+  </si>
+  <si>
+    <t>nft6</t>
+  </si>
+  <si>
+    <t>ChainID</t>
+  </si>
+  <si>
+    <t>BD0295BD981116FF95CA29DA607738880DD3F9FD4C13D3D84802C80182689960</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
+    <t>42CBB8EF36F39FD5DFD55BA296A8FC803E49B04887EE4920A9508E4EF596B809</t>
+  </si>
+  <si>
+    <t>61E898E082BE8A74956003A82595B8EBA6857831DD52B9DC373DB7414D6EE31B</t>
+  </si>
+  <si>
+    <t>5413A020A0532381864449136CD3BB15268E5DEF1B2565FCC01CA15B83D0A88E</t>
+  </si>
+  <si>
+    <t>classId:</t>
+  </si>
+  <si>
+    <t>wasm.stars1ve46fjrhcrum94c7d8yc2wsdz8cpuw73503e8qn9r44spr6dw0lsvmvtqh/channel-207/ocy</t>
+  </si>
+  <si>
+    <t>contract(cw-721):</t>
+  </si>
+  <si>
+    <t>stars1xwa0plhtfk03843pm2tw2gxy635g09z3z954plhcesye7wayvvps5fs3aw</t>
+  </si>
+  <si>
+    <t>7F14944771B83D29A664BECC0C8B024D95C9C8D2F4D0507C3235639C0CCC6662</t>
+  </si>
+  <si>
+    <t>uptick_7000-2</t>
+  </si>
+  <si>
+    <t>A8D51E86D5E20BC6356C8D247916165160ECCC370DC1909381DFCC36B1F1548D</t>
+  </si>
+  <si>
+    <t>nft-transfer/channel-3/ocy</t>
+  </si>
+  <si>
+    <t>collection:</t>
+  </si>
+  <si>
+    <t>ibc/59092B916CC764C0496CB2BCE79B78D6F87DBD60748142EBA3733BE25C747590</t>
+  </si>
+  <si>
+    <t>CE5D2F6461A60E986DC2AB6DB0BF2FB5BDAF85D9B5F79FD2F16C3891E1D03359</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>3B703BB571132BA508565503018625A23F23998D6F5168338B5FB47A758033CB</t>
+  </si>
+  <si>
+    <t>ibc class on chain</t>
+  </si>
+  <si>
+    <t>nft id</t>
+  </si>
+  <si>
+    <t>tx hash on that chain</t>
+  </si>
+  <si>
+    <t>chain id</t>
+  </si>
+  <si>
+    <t>tx hash on that chain	chain id</t>
+  </si>
+  <si>
+    <t>The first Interchain NFT-Transfer TxHash</t>
+  </si>
+  <si>
+    <t>The Internal Transfer TxHash on IRISnet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -122,51 +610,403 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00D9D9D9"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -182,7 +1022,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -194,7 +1034,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -208,12 +1048,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -241,31 +1081,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -293,23 +1116,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -451,149 +1257,1307 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE58FD51-15A4-F74F-A13F-73A59FAD09B0}">
-  <dimension ref="A1:P4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.8285714285714" customWidth="1"/>
+    <col min="3" max="3" width="17.5047619047619" customWidth="1"/>
+    <col min="4" max="4" width="16.1619047619048" customWidth="1"/>
+    <col min="5" max="5" width="18.1619047619048" customWidth="1"/>
+    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="31.5047619047619" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="17.8285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5047619047619" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" customHeight="1" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5047619047619" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5047619047619" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5047619047619" defaultRowHeight="12.75" outlineLevelRow="2"/>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="2" width="17.8285714285714" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:3">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="17.8285714285714" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" ht="12" customHeight="1" spans="1:6">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="8" ht="15" spans="5:6">
+      <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="5:6">
+      <c r="E9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="17.8285714285714" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="47.5047619047619" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" ht="12" customHeight="1" spans="5:5">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="15" spans="5:6">
+      <c r="E5" s="6"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" ht="14.25" spans="5:6">
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="8" ht="15" spans="5:6">
+      <c r="E8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" spans="5:6">
+      <c r="E9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="17.8285714285714" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="18.5714285714286" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="13" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="5:6">
+      <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="5:6">
+      <c r="E7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="16" max="16" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="17.8285714285714" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="5:6">
+      <c r="E6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="5:6">
+      <c r="E7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="G3:H4"/>
-    <mergeCell ref="E3:F4"/>
-    <mergeCell ref="C3:D4"/>
-    <mergeCell ref="A3:B4"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="O1:P2"/>
-    <mergeCell ref="O3:P4"/>
-    <mergeCell ref="M3:N4"/>
-    <mergeCell ref="K3:L4"/>
-    <mergeCell ref="I3:J4"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:D2"/>
-    <mergeCell ref="E1:F2"/>
-    <mergeCell ref="G1:H2"/>
-    <mergeCell ref="I1:J2"/>
-    <mergeCell ref="K1:L2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="14.25" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/omercanyenigun/evidence.xlsx
+++ b/omercanyenigun/evidence.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10107"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omercanyenigun/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBDC05A9-7076-0B45-8D1C-BCEFD07B9C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="12380" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" firstSheet="6" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -44,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="97">
   <si>
     <t>TeamName</t>
   </si>
@@ -103,6 +97,9 @@
     <t>ocy</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>NFTID</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
     <t>BD0295BD981116FF95CA29DA607738880DD3F9FD4C13D3D84802C80182689960</t>
   </si>
   <si>
+    <t>stars1xwa0plhtfk03843pm2tw2gxy635g09z3z954plhcesye7wayvvps5fs3aw</t>
+  </si>
+  <si>
     <t>elgafar-1</t>
   </si>
   <si>
@@ -160,56 +160,189 @@
     <t>5413A020A0532381864449136CD3BB15268E5DEF1B2565FCC01CA15B83D0A88E</t>
   </si>
   <si>
-    <t>stars1xwa0plhtfk03843pm2tw2gxy635g09z3z954plhcesye7wayvvps5fs3aw</t>
-  </si>
-  <si>
     <t>7F14944771B83D29A664BECC0C8B024D95C9C8D2F4D0507C3235639C0CCC6662</t>
   </si>
   <si>
+    <t>ibc/59092B916CC764C0496CB2BCE79B78D6F87DBD60748142EBA3733BE25C747590</t>
+  </si>
+  <si>
     <t>uptick_7000-2</t>
   </si>
   <si>
     <t>A8D51E86D5E20BC6356C8D247916165160ECCC370DC1909381DFCC36B1F1548D</t>
   </si>
   <si>
-    <t>ibc/59092B916CC764C0496CB2BCE79B78D6F87DBD60748142EBA3733BE25C747590</t>
-  </si>
-  <si>
     <t>CE5D2F6461A60E986DC2AB6DB0BF2FB5BDAF85D9B5F79FD2F16C3891E1D03359</t>
   </si>
   <si>
     <t>3B703BB571132BA508565503018625A23F23998D6F5168338B5FB47A758033CB</t>
   </si>
   <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
-  </si>
-  <si>
-    <t>tx hash on that chain	chain id</t>
+    <t>ibc/A02B1968CECA98D50D3AE4898A961881490CF9081D0569639B8E0E650A6CD66E</t>
+  </si>
+  <si>
+    <t>ibc/33AA248FFE42BC5CEE96C694FFDB551E23D683FA0190D13843E40C1AE0D7D555</t>
+  </si>
+  <si>
+    <t>ibc/BB125490BF0E85A134599BE877C3DECDB80B5E570908035C3509772543F22D5E</t>
+  </si>
+  <si>
+    <t>ibc/316909B75D2F9CEF93092E7975D33EBC4B67D375D41CC4C31E591AAA3069F7E7</t>
+  </si>
+  <si>
+    <t>nft7</t>
+  </si>
+  <si>
+    <t>ibc/E6B585355B7BE0BFFE95F2D2EB03A2B998FE027443B8E40981071A3E26A8BC91</t>
+  </si>
+  <si>
+    <t>nft8</t>
+  </si>
+  <si>
+    <t>ibc/1D1F943597DF85F1EAC69B4BB369C3F87B756F3015C73D334C30D8F827717118</t>
+  </si>
+  <si>
+    <t>nft9</t>
+  </si>
+  <si>
+    <t>7B99FCFCB4B19875B897C172C9C8C9EFF41B7E4268784D1092213573670E9FE2</t>
+  </si>
+  <si>
+    <t>gon-irishub-1</t>
+  </si>
+  <si>
+    <t>61BE74F0A450EBC0ECBFCDDE266D7DD294BC72F31F56F040D8AFC51DDB96BB74</t>
+  </si>
+  <si>
+    <t>253EF8164187D81AF916FEF22E052A032340B748C4AF0813EF36E8D7D05E7B91</t>
+  </si>
+  <si>
+    <t>83A6844DDFC13AC82EBE878B13873C7AE18AA30E00FE354452F326F5C6AEE797</t>
+  </si>
+  <si>
+    <t>799D235D2CE692DF22BC66638532E89F95C1D25315A2AEA8CF36F8ECCCC386CA</t>
+  </si>
+  <si>
+    <t>2FF22BAF491A7F9E5121520260C1B3AB4D254F218BC09B348374A6E2A266EF44</t>
+  </si>
+  <si>
+    <t>8EE4CEF0381BDAA1E38988C1A58C691101076BA3F991446624C1A8998BCC33B7</t>
+  </si>
+  <si>
+    <t>gon-flixnet-1</t>
+  </si>
+  <si>
+    <t>A811BFFE6F75A23FDC135219CD9ECC0A6FA6A48A5F380CC25CD3C92B025E01C0</t>
+  </si>
+  <si>
+    <t>704D4B81859338BBEDC3C9832DDDF8C1BBB3C55A2C332E97C102FCDC63705A63</t>
+  </si>
+  <si>
+    <t>21DF65F0C9262774141EC5D4126DD822931FBFD1FE439496B5481AE401DE7044</t>
+  </si>
+  <si>
+    <t>uni-6</t>
+  </si>
+  <si>
+    <t>3EFADE1FE3881BF368DB69256CAF5ABB7FBA8BB4FD2C95A2445C452CDFD49D55</t>
+  </si>
+  <si>
+    <t>7D1937AD855630A42E55A9F321C88BD83858011887D033B94900A3A5394CEF04</t>
+  </si>
+  <si>
+    <t>CE2FD23E692AF39860E969B8F5737CA7D4E16B80CD91751056D521B0ADD3B548</t>
+  </si>
+  <si>
+    <t>E4C2EE5DE991679BF11EAA6235AB2555CA57158F3410621C0446672BDA1F8FF3</t>
+  </si>
+  <si>
+    <t>B7FFB3C9C04939E78B9AE4E918A700023E21A3EF9AAA4BED824EAC280B69E011</t>
+  </si>
+  <si>
+    <t>B5DC2789B37C8CFFC34D127404D5D201B884FE430C853C2D2E3E40E6033A9DEB</t>
+  </si>
+  <si>
+    <t>A87376AFFC8FF55C22F9B169BD8BD9E6DF2F4015B26BAA71C281BEA9DAF2FA77</t>
+  </si>
+  <si>
+    <t>00A6A4C7BC615950356522C2E0A245FCD73B15284F4288EC221675058DA339E7</t>
+  </si>
+  <si>
+    <t>8335680ACD7A26E3513717D3A06310DCD48D413EEA21FA04577CDA76B3ECF98B</t>
+  </si>
+  <si>
+    <t>44C84CAF74F6CAA0CCDCF298A8FAB27F7210F9D3D2FF52F473F2EA939DA72D48</t>
+  </si>
+  <si>
+    <t>DD84C4A9F1FF22414B68DF28891BDA2E6DEFA042499B1F749D6F7AC503231638</t>
+  </si>
+  <si>
+    <t>24875CFC6557F5E1985EB7A2D0ADCB10A187D5A4961A0A60F098A6FA201FAADC</t>
+  </si>
+  <si>
+    <t>97AA9A3DC36DD7FB244BC7E211CED89F6FEFBF667A841B1997DDC607AAE55624</t>
+  </si>
+  <si>
+    <t>EC0809458F2CB619B1DC5E44F240B30321A3B93A068663018B7B2BF03FF1D742</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gon-flixnet-1
+</t>
+  </si>
+  <si>
+    <t>5E9D82615E0FA0F1E287624FA742CCAD52ECC189B7D315FA9E6B80083E8D7EF7</t>
+  </si>
+  <si>
+    <t>CD6292A4A2C3E3D28ECBF3F5234561FF9C7F2513894C8FEBA3FAEFFBF50419FF</t>
+  </si>
+  <si>
+    <t>20C4F32FE10B0F9632202149D97BBC5A4E70A6151F2F8048650696A6F08E0AC4</t>
+  </si>
+  <si>
+    <t>98CD7F653B2641C5C2A66AD9B7F0EF9FB9E89284EB021FB65895D494650B5899</t>
+  </si>
+  <si>
+    <t>51438E5C659F7A74D06DBE6AA8E4BE43D4673C6E579B1E81534582BBE06635D9</t>
+  </si>
+  <si>
+    <t>5C24F898CACB29BFDCE7F9FC8189C9C0489C306D6FBDFE480B972FFC38EFA21C</t>
+  </si>
+  <si>
+    <t>38D7DCACEA7FB75E4954FA55352D791A239D1E30B4ECAD729D32C068E5E9549A</t>
+  </si>
+  <si>
+    <t>E2A6D623D4762B00B851344D9190DCA70EB5B5214751AFF9845BE0900745C62D</t>
+  </si>
+  <si>
+    <t>073D8351FBF97D4BFFBD72AC6CAC6434B1777C2401EB7740A9A687D0C9553E51</t>
+  </si>
+  <si>
+    <t>8A3D18E25BA7C276E61CED23B65662563EF36AD9E4B9E85948A47A26E71FBB11</t>
+  </si>
+  <si>
+    <t>749E7D4186EF947D54E308586C4F297EC9AF9ABBAAC4E9B3BE0676FB4A7B2C2E</t>
+  </si>
+  <si>
+    <t>31FDB9C27136AA7BBCDE279FF05E82516DE89A4253A64FF8EF21513F1E68EC33</t>
   </si>
   <si>
     <t>The first Interchain NFT-Transfer TxHash</t>
   </si>
   <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -234,8 +367,159 @@
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +532,194 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -257,22 +727,267 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -280,10 +995,57 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -356,9 +1118,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -616,30 +1375,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14.8285714285714" customWidth="1"/>
+    <col min="3" max="3" width="17.5047619047619" customWidth="1"/>
+    <col min="4" max="4" width="16.1619047619048" customWidth="1"/>
+    <col min="5" max="5" width="18.1619047619048" customWidth="1"/>
+    <col min="6" max="6" width="17.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="14.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,11 +1424,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+    <row r="2" ht="14.25" spans="1:8">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -689,420 +1448,546 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+    <row r="3" spans="1:2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="31.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:2">
+      <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" spans="1:2">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+    <col min="1" max="2" width="17.8285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1110,7 +1995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -1118,129 +2003,201 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>49</v>
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5047619047619" defaultRowHeight="12.75" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="16.5" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1249,33 +2206,34 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5047619047619" defaultRowHeight="12.75" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1284,33 +2242,34 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5047619047619" defaultRowHeight="12.75" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1319,33 +2278,34 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5047619047619" defaultRowHeight="12.75" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" ht="14.25" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="14" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1354,20 +2314,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+    <col min="1" max="2" width="17.8285714285714" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1375,98 +2336,100 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:3">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" spans="1:3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:3">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+    <col min="1" max="2" width="17.8285714285714" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1474,103 +2437,105 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:6">
+      <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" ht="12" customHeight="1" spans="1:6">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="E8" s="5"/>
+    <row r="8" ht="15" spans="5:6">
+      <c r="E8" s="7"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" ht="14.25" spans="5:6">
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+    <col min="1" max="2" width="17.8285714285714" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="47.5" customWidth="1"/>
+    <col min="5" max="5" width="47.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1578,81 +2543,83 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="16" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" spans="1:4">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="E5" s="5"/>
+    </row>
+    <row r="4" ht="12" customHeight="1" spans="5:5">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" ht="15" spans="5:6">
+      <c r="E5" s="7"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" ht="14.25" spans="5:6">
       <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="E8" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="8" ht="15" spans="5:6">
+      <c r="E8" s="7"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" ht="14.25" spans="5:5">
       <c r="E9" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="17.83203125" customWidth="1"/>
+    <col min="1" max="2" width="17.8285714285714" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="17.1619047619048" customWidth="1"/>
+    <col min="5" max="5" width="18.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1660,57 +2627,59 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="13" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="E6" s="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" ht="15" spans="5:6">
+      <c r="E6" s="7"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" ht="14.25" spans="5:6">
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.8285714285714" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="14.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -1718,102 +2687,111 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="E6" s="5"/>
+    </row>
+    <row r="6" ht="15" spans="5:6">
+      <c r="E6" s="7"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" ht="14.25" spans="5:6">
       <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5"/>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" ht="14.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:2">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/omercanyenigun/evidence.xlsx
+++ b/omercanyenigun/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" firstSheet="6" activeTab="20"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="500" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -205,61 +205,61 @@
     <t>nft9</t>
   </si>
   <si>
-    <t>7B99FCFCB4B19875B897C172C9C8C9EFF41B7E4268784D1092213573670E9FE2</t>
+    <t>A96DCAA72177ECD54C4E3B72830E8A7E3B1B9E867784FD771B6B6E29C758D723</t>
   </si>
   <si>
     <t>gon-irishub-1</t>
   </si>
   <si>
-    <t>61BE74F0A450EBC0ECBFCDDE266D7DD294BC72F31F56F040D8AFC51DDB96BB74</t>
-  </si>
-  <si>
-    <t>253EF8164187D81AF916FEF22E052A032340B748C4AF0813EF36E8D7D05E7B91</t>
-  </si>
-  <si>
-    <t>83A6844DDFC13AC82EBE878B13873C7AE18AA30E00FE354452F326F5C6AEE797</t>
-  </si>
-  <si>
-    <t>799D235D2CE692DF22BC66638532E89F95C1D25315A2AEA8CF36F8ECCCC386CA</t>
-  </si>
-  <si>
-    <t>2FF22BAF491A7F9E5121520260C1B3AB4D254F218BC09B348374A6E2A266EF44</t>
-  </si>
-  <si>
-    <t>8EE4CEF0381BDAA1E38988C1A58C691101076BA3F991446624C1A8998BCC33B7</t>
+    <t>BE791DFDA79D44A69AAAD1AB098E04B34EAB7AABA3B17E5EF0E90017C10A7083</t>
+  </si>
+  <si>
+    <t>B1B3C12E9A9C1C60636DA3ED5E2573F40307B18CA2430C9F321F18D52084D865</t>
+  </si>
+  <si>
+    <t>423DD62280339E436892E17B11A2E6B84B0A7B66DBB98AD6F512F4891202D483</t>
+  </si>
+  <si>
+    <t>D4F4A604CB37F9306ED4EA6CDABE6692862500208D482CCBCEFBA074BD2830BE</t>
+  </si>
+  <si>
+    <t>3685F3456F4B443BCF4D1052E8C7F41653710016D41C31DB3FE4D7B8C06E1BBE</t>
+  </si>
+  <si>
+    <t>53B35BCA5C7B733F97FAE1B0A08D79F71800E255BBB13440C6229DB0922BEE28</t>
   </si>
   <si>
     <t>gon-flixnet-1</t>
   </si>
   <si>
-    <t>A811BFFE6F75A23FDC135219CD9ECC0A6FA6A48A5F380CC25CD3C92B025E01C0</t>
-  </si>
-  <si>
-    <t>704D4B81859338BBEDC3C9832DDDF8C1BBB3C55A2C332E97C102FCDC63705A63</t>
-  </si>
-  <si>
-    <t>21DF65F0C9262774141EC5D4126DD822931FBFD1FE439496B5481AE401DE7044</t>
+    <t>3932858138DFE582AE27A31E219C48CA660B2F920A2A86EB678E55430E7B8358</t>
+  </si>
+  <si>
+    <t>C18BE548E335E5D332157CE50AC73A071D00A22149C2C361F91702F56F704CEE</t>
+  </si>
+  <si>
+    <t>DDE8D86F9B51C974625799CB7216A4989B415CA931D2DDE52AA2DFE942188ED3</t>
   </si>
   <si>
     <t>uni-6</t>
   </si>
   <si>
-    <t>3EFADE1FE3881BF368DB69256CAF5ABB7FBA8BB4FD2C95A2445C452CDFD49D55</t>
-  </si>
-  <si>
-    <t>7D1937AD855630A42E55A9F321C88BD83858011887D033B94900A3A5394CEF04</t>
-  </si>
-  <si>
-    <t>CE2FD23E692AF39860E969B8F5737CA7D4E16B80CD91751056D521B0ADD3B548</t>
-  </si>
-  <si>
-    <t>E4C2EE5DE991679BF11EAA6235AB2555CA57158F3410621C0446672BDA1F8FF3</t>
-  </si>
-  <si>
-    <t>B7FFB3C9C04939E78B9AE4E918A700023E21A3EF9AAA4BED824EAC280B69E011</t>
-  </si>
-  <si>
-    <t>B5DC2789B37C8CFFC34D127404D5D201B884FE430C853C2D2E3E40E6033A9DEB</t>
+    <t>B679E9DAAEC1CAFDA86087DD2D099C23423E71F6B11550E5C0936E87859FEAA4</t>
+  </si>
+  <si>
+    <t>6EB8CFDC827B394FCF75605A7403251C47E0610D8F0276E024CE9AC7485084EC</t>
+  </si>
+  <si>
+    <t>B05E1C1FEA8C59FD182365B6B1CC6523B0861DA6201B92B7656B12EDDD7911FE</t>
+  </si>
+  <si>
+    <t>2FC68D9E3E3AA56CF0DA0A3073A13A77A63EC17C84EB15CD62735FAB5E75BC7E</t>
+  </si>
+  <si>
+    <t>8BFBF90697FA58823DFC80C243FECC1BB49D97C0DC0AFC3DFF1706E3135015B1</t>
+  </si>
+  <si>
+    <t>30CBDC5BDC960A0F47C2A237EEEAE8E71417E5585A66C1E080105EF7FF8B8F25</t>
   </si>
   <si>
     <t>A87376AFFC8FF55C22F9B169BD8BD9E6DF2F4015B26BAA71C281BEA9DAF2FA77</t>
@@ -337,10 +337,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -376,23 +376,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -404,8 +398,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -421,7 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,6 +451,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -458,46 +467,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,6 +496,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -534,6 +534,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -546,31 +624,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -582,7 +636,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,127 +690,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,6 +725,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -758,15 +776,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -778,35 +787,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,155 +805,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -988,9 +988,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1425,10 +1422,10 @@
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:8">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -1449,8 +1446,8 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1613,7 +1610,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1674,7 +1671,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1735,7 +1732,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6666666666667" defaultRowHeight="12.75" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -1795,7 +1792,7 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2097,7 +2094,7 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -2578,7 +2575,7 @@
       </c>
     </row>
     <row r="4" ht="12" customHeight="1" spans="5:5">
-      <c r="E4" s="8"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" ht="15" spans="5:6">
       <c r="E5" s="7"/>

--- a/omercanyenigun/evidence.xlsx
+++ b/omercanyenigun/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="2" activeTab="20"/>
+    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="110">
   <si>
     <t>TeamName</t>
   </si>
@@ -115,21 +115,21 @@
     <t>ClassID</t>
   </si>
   <si>
+    <t>7A5DA5BD29A838B4A02A2444DD71BA95E883EA9C432674F7ECA17BC4BB99A5A9</t>
+  </si>
+  <si>
+    <t>ocy</t>
+  </si>
+  <si>
+    <t>NFTID</t>
+  </si>
+  <si>
     <t>tx hash on irisnet</t>
   </si>
   <si>
     <t>class id you issued</t>
   </si>
   <si>
-    <t>7A5DA5BD29A838B4A02A2444DD71BA95E883EA9C432674F7ECA17BC4BB99A5A9</t>
-  </si>
-  <si>
-    <t>ocy</t>
-  </si>
-  <si>
-    <t>NFTID</t>
-  </si>
-  <si>
     <t>nft id you minted</t>
   </si>
   <si>
@@ -172,6 +172,15 @@
     <t>ChainID</t>
   </si>
   <si>
+    <t>5413A020A0532381864449136CD3BB15268E5DEF1B2565FCC01CA15B83D0A88E</t>
+  </si>
+  <si>
+    <t>stars1xwa0plhtfk03843pm2tw2gxy635g09z3z954plhcesye7wayvvps5fs3aw</t>
+  </si>
+  <si>
+    <t>elgafar-1</t>
+  </si>
+  <si>
     <t>ibc class on dest chain</t>
   </si>
   <si>
@@ -179,15 +188,6 @@
   </si>
   <si>
     <t>dest chain id</t>
-  </si>
-  <si>
-    <t>5413A020A0532381864449136CD3BB15268E5DEF1B2565FCC01CA15B83D0A88E</t>
-  </si>
-  <si>
-    <t>stars1xwa0plhtfk03843pm2tw2gxy635g09z3z954plhcesye7wayvvps5fs3aw</t>
-  </si>
-  <si>
-    <t>elgafar-1</t>
   </si>
   <si>
     <t>7F14944771B83D29A664BECC0C8B024D95C9C8D2F4D0507C3235639C0CCC6662</t>
@@ -376,12 +376,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,7 +409,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,6 +417,114 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,122 +546,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,31 +573,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,151 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -785,71 +778,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -878,6 +806,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -886,151 +855,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1533,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
@@ -1541,7 +1534,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1580,7 +1573,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
@@ -1588,7 +1581,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1627,7 +1620,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
@@ -1635,7 +1628,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1674,7 +1667,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
@@ -1682,7 +1675,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1745,7 +1738,7 @@
         <v>70</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1761,7 +1754,7 @@
         <v>72</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1966,7 +1959,7 @@
         <v>85</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2029,7 +2022,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2045,7 +2038,7 @@
         <v>90</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2130,13 +2123,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
   </cols>
@@ -2150,19 +2143,11 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2217,7 +2202,7 @@
         <v>97</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2249,7 +2234,7 @@
         <v>101</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +2250,7 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2312,7 +2297,7 @@
         <v>104</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2328,7 +2313,7 @@
         <v>106</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2518,15 +2503,15 @@
         <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
@@ -2537,7 +2522,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
@@ -2548,7 +2533,7 @@
         <v>33</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>34</v>
@@ -2559,7 +2544,7 @@
         <v>35</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>36</v>
@@ -2570,7 +2555,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>38</v>
@@ -2581,7 +2566,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>40</v>
@@ -2592,7 +2577,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>42</v>
@@ -2612,7 +2597,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
@@ -2630,38 +2615,24 @@
         <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2708,7 +2679,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>43</v>
@@ -2716,16 +2687,16 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="28.5" spans="1:4">
@@ -2774,7 +2745,7 @@
         <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>43</v>
@@ -2788,10 +2759,10 @@
         <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2799,13 +2770,13 @@
         <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2819,13 +2790,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17.8666666666667" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.0095238095238" style="1" customWidth="1"/>
@@ -2841,37 +2812,23 @@
         <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2903,7 +2860,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
@@ -2911,7 +2868,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2950,7 +2907,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
@@ -2958,7 +2915,7 @@
         <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/omercanyenigun/evidence.xlsx
+++ b/omercanyenigun/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="24225" windowHeight="12375" firstSheet="9" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="112">
   <si>
     <t>TeamName</t>
   </si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <t>The Internal Transfer TxHash on IRISnet</t>
+  </si>
+  <si>
+    <t>96CEC188BF93F9E920289F6009637DED3A57B7D4D163C3697099E157CB998B08</t>
+  </si>
+  <si>
+    <t>DF4259DCD8925204A5FC35937222177164E6FE0593D62D5E46EC8975DFADDBBC</t>
   </si>
 </sst>
 </file>
@@ -377,9 +383,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -408,8 +414,9 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,24 +429,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,9 +476,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,67 +557,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -579,19 +585,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,157 +741,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,6 +784,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,41 +843,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -879,6 +865,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -900,130 +906,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1407,7 +1413,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -2374,8 +2380,8 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
@@ -2390,12 +2396,12 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2792,7 +2798,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>

--- a/omercanyenigun/evidence.xlsx
+++ b/omercanyenigun/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12375" firstSheet="9" activeTab="22"/>
+    <workbookView windowWidth="24225" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
   <si>
     <t>TeamName</t>
   </si>
@@ -64,30 +64,6 @@
     <t>Community</t>
   </si>
   <si>
-    <t>team name</t>
-  </si>
-  <si>
-    <t>addr1</t>
-  </si>
-  <si>
-    <t>addr2</t>
-  </si>
-  <si>
-    <t>addr3</t>
-  </si>
-  <si>
-    <t>addr4</t>
-  </si>
-  <si>
-    <t>addr5</t>
-  </si>
-  <si>
-    <t>discord#1234</t>
-  </si>
-  <si>
-    <t>set none if no community</t>
-  </si>
-  <si>
     <t>omercanyenigun</t>
   </si>
   <si>
@@ -124,15 +100,6 @@
     <t>NFTID</t>
   </si>
   <si>
-    <t>tx hash on irisnet</t>
-  </si>
-  <si>
-    <t>class id you issued</t>
-  </si>
-  <si>
-    <t>nft id you minted</t>
-  </si>
-  <si>
     <t>21398E8901EB74C53F621184485DBEF1470549AF6791651AAE402D254196C5B9</t>
   </si>
   <si>
@@ -181,15 +148,6 @@
     <t>elgafar-1</t>
   </si>
   <si>
-    <t>ibc class on dest chain</t>
-  </si>
-  <si>
-    <t>nft id</t>
-  </si>
-  <si>
-    <t>dest chain id</t>
-  </si>
-  <si>
     <t>7F14944771B83D29A664BECC0C8B024D95C9C8D2F4D0507C3235639C0CCC6662</t>
   </si>
   <si>
@@ -199,12 +157,6 @@
     <t>uptick_7000-2</t>
   </si>
   <si>
-    <t>tx hash on dest chain</t>
-  </si>
-  <si>
-    <t>ibc class on chain</t>
-  </si>
-  <si>
     <t>CE5D2F6461A60E986DC2AB6DB0BF2FB5BDAF85D9B5F79FD2F16C3891E1D03359</t>
   </si>
   <si>
@@ -236,12 +188,6 @@
   </si>
   <si>
     <t>nft9</t>
-  </si>
-  <si>
-    <t>tx hash on that chain</t>
-  </si>
-  <si>
-    <t>chain id</t>
   </si>
   <si>
     <t>A96DCAA72177ECD54C4E3B72830E8A7E3B1B9E867784FD771B6B6E29C758D723</t>
@@ -382,10 +328,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -423,14 +369,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -439,22 +401,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,28 +423,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -513,9 +437,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,8 +453,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,7 +476,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,7 +504,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,7 +519,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,19 +537,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,54 +681,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -669,97 +693,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,6 +724,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFC6C6C6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,17 +797,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,15 +811,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,15 +828,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -909,131 +849,131 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1054,9 +994,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1410,13 +1347,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.5809523809524" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.8666666666667" style="1" customWidth="1"/>
@@ -1461,48 +1398,22 @@
       <c r="B2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="4"/>
+      <c r="H2" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1515,13 +1426,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1529,26 +1440,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>42</v>
+      <c r="A2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1562,13 +1465,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1576,26 +1479,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>61</v>
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1609,13 +1504,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1623,26 +1518,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1656,13 +1543,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1670,26 +1557,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>65</v>
+      <c r="B2" s="4" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1703,13 +1582,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1717,50 +1596,42 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
+      <c r="A2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>46</v>
+      <c r="A5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1774,13 +1645,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1788,50 +1659,42 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
+      <c r="A2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>56</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>75</v>
+      <c r="A5" s="5" t="s">
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1845,13 +1708,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1859,50 +1722,42 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>61</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>81</v>
+      <c r="A5" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1916,13 +1771,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -1930,50 +1785,42 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
+      <c r="A2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>85</v>
+      <c r="A5" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1987,13 +1834,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -2001,50 +1848,42 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
+      <c r="A2" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>89</v>
+      <c r="A5" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2058,13 +1897,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A2" sqref="A2:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -2072,50 +1911,42 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
+      <c r="A2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" ht="25.5" spans="1:2">
+      <c r="A5" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" spans="1:2">
-      <c r="A6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>95</v>
+      <c r="B5" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2142,18 +1973,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2167,13 +1998,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B8"/>
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -2181,66 +2012,58 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
+      <c r="A2" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>98</v>
+      <c r="A5" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2254,13 +2077,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A2" sqref="A2:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -2268,66 +2091,58 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
+      <c r="A2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
+        <v>85</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>104</v>
+      <c r="A5" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2354,17 +2169,17 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2380,7 +2195,7 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2391,17 +2206,17 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2428,17 +2243,17 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2465,17 +2280,17 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2489,13 +2304,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C8"/>
+      <selection activeCell="A2" sqref="A2:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
@@ -2503,90 +2318,79 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2615,30 +2419,30 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2664,13 +2468,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
@@ -2679,44 +2483,30 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" ht="28.5" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>52</v>
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2730,13 +2520,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
@@ -2745,44 +2535,30 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>46</v>
+      <c r="A2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2812,30 +2588,30 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2849,13 +2625,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -2863,26 +2639,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>32</v>
+      <c r="A2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2896,13 +2664,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
@@ -2910,26 +2678,18 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
+      <c r="A2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/omercanyenigun/evidence.xlsx
+++ b/omercanyenigun/evidence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12375"/>
+    <workbookView windowWidth="24225" windowHeight="12375" firstSheet="12" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="B2" sheetId="23" r:id="rId23"/>
     <sheet name="B5" sheetId="24" r:id="rId24"/>
     <sheet name="B6" sheetId="25" r:id="rId25"/>
+    <sheet name="B7" sheetId="26" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="100">
   <si>
     <t>TeamName</t>
   </si>
@@ -321,6 +322,24 @@
   </si>
   <si>
     <t>DF4259DCD8925204A5FC35937222177164E6FE0593D62D5E46EC8975DFADDBBC</t>
+  </si>
+  <si>
+    <t>ADF2082196A7D8512AAD637BAEEAA706BA82B584191F6A8C9FDEB95D27E70D65</t>
+  </si>
+  <si>
+    <t>8E7AEEA7F814FE65CB75FA3C9E573B135521BAD79572C37D83D1FD0A9E093FA0</t>
+  </si>
+  <si>
+    <t>790B52F42521C26461DDC65432CF24644E5FBD3149C40172C3DEC861ED8252C3</t>
+  </si>
+  <si>
+    <t>E5D3A5DA46DE8A5F6F77571F7951FA286AC4D95114A247A9ACBF1F4E0016FFDA</t>
+  </si>
+  <si>
+    <t>650DB61A7D9127AC093E746D065837E23BDA61C8F627CA78F6DDA739C1DBA6F9</t>
+  </si>
+  <si>
+    <t>10ADB1A36240F62706EF3E09FEBEF05305D88492D4993825AD55C9CB55C8293B</t>
   </si>
 </sst>
 </file>
@@ -328,10 +347,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -368,8 +387,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,9 +402,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,22 +419,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,14 +439,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -446,7 +448,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -454,7 +456,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -475,8 +485,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -489,13 +508,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +515,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -519,187 +538,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,36 +743,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFC6C6C6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -806,6 +795,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -828,15 +847,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,139 +868,139 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1349,45 +1368,45 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.5809523809524" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.8666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5809523809524" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.152380952381" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5809523809524" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.8666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="17.5809523809524" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.152380952381" style="3" customWidth="1"/>
     <col min="5" max="5" width="18.152380952381" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.7238095238095" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5809523809524" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7238095238095" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.5809523809524" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1434,15 +1453,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1473,15 +1492,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1512,15 +1531,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1551,15 +1570,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1590,15 +1609,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1653,15 +1672,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1716,15 +1735,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1779,15 +1798,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1842,15 +1861,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1905,15 +1924,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1968,14 +1987,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.8666666666667" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2006,15 +2025,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2085,15 +2104,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2164,21 +2183,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="16.4" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2201,21 +2220,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2232,28 +2251,28 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>90</v>
+      <c r="A2" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>91</v>
+      <c r="A3" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -2270,31 +2289,69 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A2" s="3" t="s">
-        <v>90</v>
+      <c r="A2" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>91</v>
+      <c r="A3" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2312,18 +2369,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.8666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.0095238095238" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2412,22 +2469,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.8666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2476,22 +2533,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.8666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2528,22 +2585,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="17.8666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="2" width="17.8666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2580,23 +2637,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="17.8666666666667" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.2952380952381" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="17.8666666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.2952380952381" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2633,15 +2690,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2672,15 +2729,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.0095238095238" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.4380952380952" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.0095238095238" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.4380952380952" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
